--- a/Code/Results/Cases/Case_2_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.39075824486406</v>
+        <v>0.7745651815740189</v>
       </c>
       <c r="C2">
-        <v>0.5853681147117129</v>
+        <v>0.2107446106586224</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4063870673079393</v>
+        <v>0.6278702139078263</v>
       </c>
       <c r="F2">
-        <v>1.103894941761723</v>
+        <v>1.725261838504053</v>
       </c>
       <c r="G2">
-        <v>0.1233076666925115</v>
+        <v>0.2032907514144355</v>
       </c>
       <c r="H2">
-        <v>0.133273016991339</v>
+        <v>0.3882364568154699</v>
       </c>
       <c r="I2">
-        <v>0.07488929075516459</v>
+        <v>0.2692454659551169</v>
       </c>
       <c r="J2">
-        <v>0.02157833912772844</v>
+        <v>0.02373654028034622</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.124188919926397</v>
+        <v>0.5908515562150285</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4913674723164974</v>
+        <v>1.092469087424192</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.091748282820049</v>
+        <v>0.6760686717638578</v>
       </c>
       <c r="C3">
-        <v>0.5190213292202372</v>
+        <v>0.1886257031920877</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3734312985551256</v>
+        <v>0.6234773292514859</v>
       </c>
       <c r="F3">
-        <v>1.023155311562704</v>
+        <v>1.721399550507343</v>
       </c>
       <c r="G3">
-        <v>0.1175955765108654</v>
+        <v>0.2059384260378536</v>
       </c>
       <c r="H3">
-        <v>0.1366730135755176</v>
+        <v>0.3933223059687663</v>
       </c>
       <c r="I3">
-        <v>0.08512459551963758</v>
+        <v>0.2761921925181809</v>
       </c>
       <c r="J3">
-        <v>0.02080335220172458</v>
+        <v>0.02356252043098728</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9797741128139492</v>
+        <v>0.5482331789457078</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4860277314492407</v>
+        <v>1.108490097799546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908003759091713</v>
+        <v>0.6153414176308161</v>
       </c>
       <c r="C4">
-        <v>0.4782562931153507</v>
+        <v>0.1749848748368379</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3537514628627321</v>
+        <v>0.6210767214966921</v>
       </c>
       <c r="F4">
-        <v>0.9759257567940978</v>
+        <v>1.720174844028577</v>
       </c>
       <c r="G4">
-        <v>0.1147954856792239</v>
+        <v>0.207834093455908</v>
       </c>
       <c r="H4">
-        <v>0.1392162665488712</v>
+        <v>0.3966954844843116</v>
       </c>
       <c r="I4">
-        <v>0.09199087565841157</v>
+        <v>0.2807237040861592</v>
       </c>
       <c r="J4">
-        <v>0.02034805473783763</v>
+        <v>0.02346550770905509</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8913506050959086</v>
+        <v>0.5221342041039918</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4851940523382012</v>
+        <v>1.119415655406613</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833071239400454</v>
+        <v>0.5905335357662693</v>
       </c>
       <c r="C5">
-        <v>0.4616336594967549</v>
+        <v>0.169411540465461</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3458618969859728</v>
+        <v>0.620173081797077</v>
       </c>
       <c r="F5">
-        <v>0.957231702685192</v>
+        <v>1.719963860827221</v>
       </c>
       <c r="G5">
-        <v>0.1138211416064792</v>
+        <v>0.2086742126080097</v>
       </c>
       <c r="H5">
-        <v>0.1403623442986799</v>
+        <v>0.3981330096883653</v>
       </c>
       <c r="I5">
-        <v>0.09492863212687119</v>
+        <v>0.2826371095690945</v>
       </c>
       <c r="J5">
-        <v>0.020167504008338</v>
+        <v>0.02342845941618421</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.85536633337626</v>
+        <v>0.5115166473494668</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4854353206787607</v>
+        <v>1.124140962398982</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.820624946254867</v>
+        <v>0.5864105738365311</v>
       </c>
       <c r="C6">
-        <v>0.4588727483751143</v>
+        <v>0.1684852244008823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3445594331085218</v>
+        <v>0.6200275414740233</v>
       </c>
       <c r="F6">
-        <v>0.9541598776628746</v>
+        <v>1.719946219670817</v>
       </c>
       <c r="G6">
-        <v>0.1136691067084215</v>
+        <v>0.2088177898403245</v>
       </c>
       <c r="H6">
-        <v>0.1405591353232509</v>
+        <v>0.3983755088775638</v>
       </c>
       <c r="I6">
-        <v>0.09542469398879039</v>
+        <v>0.282958857642539</v>
       </c>
       <c r="J6">
-        <v>0.02013781980829954</v>
+        <v>0.02342245802286236</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8493937613705782</v>
+        <v>0.5097547162389802</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4855095151260258</v>
+        <v>1.124942067748478</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906993437851526</v>
+        <v>0.615007094540772</v>
       </c>
       <c r="C7">
-        <v>0.4780321616692049</v>
+        <v>0.1749097693794965</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3536445466689102</v>
+        <v>0.6210642324863827</v>
       </c>
       <c r="F7">
-        <v>0.9756714535732982</v>
+        <v>1.720170832506099</v>
       </c>
       <c r="G7">
-        <v>0.1147816846123391</v>
+        <v>0.2078451501679552</v>
       </c>
       <c r="H7">
-        <v>0.1392312851589921</v>
+        <v>0.3967146167266051</v>
       </c>
       <c r="I7">
-        <v>0.09202993816819571</v>
+        <v>0.2807492387719561</v>
       </c>
       <c r="J7">
-        <v>0.02034559980717887</v>
+        <v>0.02346499798468038</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8908651270640604</v>
+        <v>0.5219909383036878</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4851949972589296</v>
+        <v>1.119478277873</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.287680201039677</v>
+        <v>0.7406565370809517</v>
       </c>
       <c r="C8">
-        <v>0.5624952769697131</v>
+        <v>0.2031306606435805</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3949028254409441</v>
+        <v>0.6262939970799906</v>
       </c>
       <c r="F8">
-        <v>1.07554617407726</v>
+        <v>1.7236919463856</v>
       </c>
       <c r="G8">
-        <v>0.121184522941661</v>
+        <v>0.204147471910062</v>
       </c>
       <c r="H8">
-        <v>0.1343477519771952</v>
+        <v>0.3899380481547396</v>
       </c>
       <c r="I8">
-        <v>0.07829361970758697</v>
+        <v>0.2715853543800755</v>
       </c>
       <c r="J8">
-        <v>0.02130674704169877</v>
+        <v>0.02367450367178492</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.07433497498392</v>
+        <v>0.5761428287554367</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4889980474498543</v>
+        <v>1.097766785633951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.033879923219786</v>
+        <v>0.9850026100980358</v>
       </c>
       <c r="C9">
-        <v>0.7280890641989117</v>
+        <v>0.2579814587155624</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4806734735894693</v>
+        <v>0.6389030524691393</v>
       </c>
       <c r="F9">
-        <v>1.291795653181183</v>
+        <v>1.73971087403649</v>
       </c>
       <c r="G9">
-        <v>0.1398787289244083</v>
+        <v>0.1990507812731295</v>
       </c>
       <c r="H9">
-        <v>0.1286184962267569</v>
+        <v>0.3786385543754278</v>
       </c>
       <c r="I9">
-        <v>0.05628398702526294</v>
+        <v>0.2557339387256397</v>
       </c>
       <c r="J9">
-        <v>0.02336335671295942</v>
+        <v>0.0241629198062796</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.436743927485409</v>
+        <v>0.6828572811470508</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5174597572626141</v>
+        <v>1.063858809494349</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.583281952123002</v>
+        <v>1.163198263354502</v>
       </c>
       <c r="C10">
-        <v>0.8500158435219589</v>
+        <v>0.2979634218427805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5473416475681105</v>
+        <v>0.6496033412404714</v>
       </c>
       <c r="F10">
-        <v>1.465768949699708</v>
+        <v>1.7570613962274</v>
       </c>
       <c r="G10">
-        <v>0.1581305187032029</v>
+        <v>0.1966366412213958</v>
       </c>
       <c r="H10">
-        <v>0.1270953207644894</v>
+        <v>0.3715524586115038</v>
       </c>
       <c r="I10">
-        <v>0.04357174441023748</v>
+        <v>0.2453885771586828</v>
       </c>
       <c r="J10">
-        <v>0.02499224193701721</v>
+        <v>0.02456849209879053</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.705615533473519</v>
+        <v>0.761555235849869</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5535327365351463</v>
+        <v>1.04427339248322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.833808089813203</v>
+        <v>1.243961797043823</v>
       </c>
       <c r="C11">
-        <v>0.9056121046734233</v>
+        <v>0.3160799059828889</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5786298827093361</v>
+        <v>0.654783577684384</v>
       </c>
       <c r="F11">
-        <v>1.548829341341303</v>
+        <v>1.766172256843021</v>
       </c>
       <c r="G11">
-        <v>0.1675984447046446</v>
+        <v>0.1958309025314051</v>
       </c>
       <c r="H11">
-        <v>0.1270664962917252</v>
+        <v>0.3685933958786407</v>
       </c>
       <c r="I11">
-        <v>0.03864689526441722</v>
+        <v>0.2409665214714698</v>
       </c>
       <c r="J11">
-        <v>0.02576201557930347</v>
+        <v>0.02476303276501568</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.828743998178595</v>
+        <v>0.797416490934495</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5737948867270859</v>
+        <v>1.036529210048144</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.928791443383034</v>
+        <v>1.274500336328515</v>
       </c>
       <c r="C12">
-        <v>0.9266900489384682</v>
+        <v>0.3229294875474693</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5906310137652113</v>
+        <v>0.6567901559399161</v>
       </c>
       <c r="F12">
-        <v>1.58090305052383</v>
+        <v>1.769797827979815</v>
       </c>
       <c r="G12">
-        <v>0.1713677227189692</v>
+        <v>0.1955681368462692</v>
       </c>
       <c r="H12">
-        <v>0.1271583425634688</v>
+        <v>0.3675109574959663</v>
       </c>
       <c r="I12">
-        <v>0.03691500980559503</v>
+        <v>0.2393330245773306</v>
       </c>
       <c r="J12">
-        <v>0.02605792781778149</v>
+        <v>0.0248381340449555</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.875508785314651</v>
+        <v>0.8110044569626069</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5820717819292582</v>
+        <v>1.033764999486849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.908329509996747</v>
+        <v>1.267925341044645</v>
       </c>
       <c r="C13">
-        <v>0.9221493305005595</v>
+        <v>0.3214547923653583</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5880393036019456</v>
+        <v>0.6563560052101778</v>
       </c>
       <c r="F13">
-        <v>1.573966850260533</v>
+        <v>1.769009186244489</v>
       </c>
       <c r="G13">
-        <v>0.1705474845188348</v>
+        <v>0.1956228399470916</v>
       </c>
       <c r="H13">
-        <v>0.1271338702493026</v>
+        <v>0.3677423846181043</v>
       </c>
       <c r="I13">
-        <v>0.03728192406197461</v>
+        <v>0.2396829991511336</v>
       </c>
       <c r="J13">
-        <v>0.02599399682218362</v>
+        <v>0.02482189608868879</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.86543062679516</v>
+        <v>0.8080776969133154</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5802615033478702</v>
+        <v>1.034352822341006</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.841619961906076</v>
+        <v>1.246475131043269</v>
       </c>
       <c r="C14">
-        <v>0.9073456657097552</v>
+        <v>0.3166436429728492</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5796140682697342</v>
+        <v>0.6549477596270421</v>
       </c>
       <c r="F14">
-        <v>1.551455286106489</v>
+        <v>1.766467015842849</v>
       </c>
       <c r="G14">
-        <v>0.1679047599538279</v>
+        <v>0.1958084342052118</v>
       </c>
       <c r="H14">
-        <v>0.1270719495872825</v>
+        <v>0.3685035791598423</v>
       </c>
       <c r="I14">
-        <v>0.03850168782996111</v>
+        <v>0.2408313091383985</v>
       </c>
       <c r="J14">
-        <v>0.02578627030726111</v>
+        <v>0.02476918273835693</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.832588457961705</v>
+        <v>0.7985342230416421</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5744634261518087</v>
+        <v>1.036298418529114</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.800774231594971</v>
+        <v>1.233330359346553</v>
       </c>
       <c r="C15">
-        <v>0.8982814159524537</v>
+        <v>0.3136952632483485</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5744737483955618</v>
+        <v>0.6540910198609424</v>
       </c>
       <c r="F15">
-        <v>1.537748881641122</v>
+        <v>1.764932726468132</v>
       </c>
       <c r="G15">
-        <v>0.1663104820733565</v>
+        <v>0.1959276399671666</v>
       </c>
       <c r="H15">
-        <v>0.1270476284116739</v>
+        <v>0.3689747958504626</v>
       </c>
       <c r="I15">
-        <v>0.03926645313767363</v>
+        <v>0.2415400322529511</v>
       </c>
       <c r="J15">
-        <v>0.02565961540812012</v>
+        <v>0.02473708056728796</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.812490403194516</v>
+        <v>0.7926896019634171</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5709921493999133</v>
+        <v>1.037512098453064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.566923919413114</v>
+        <v>1.157914003698693</v>
       </c>
       <c r="C16">
-        <v>0.8463856362863282</v>
+        <v>0.2967779890596205</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5453174571162265</v>
+        <v>0.6492710896714868</v>
       </c>
       <c r="F16">
-        <v>1.460424392585679</v>
+        <v>1.756490518511328</v>
       </c>
       <c r="G16">
-        <v>0.1575365916843054</v>
+        <v>0.1966952084579674</v>
       </c>
       <c r="H16">
-        <v>0.1271111772382199</v>
+        <v>0.3717511673558036</v>
       </c>
       <c r="I16">
-        <v>0.04391167204249236</v>
+        <v>0.2456833016669968</v>
       </c>
       <c r="J16">
-        <v>0.02494253783503808</v>
+        <v>0.02455597954385524</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.697587017548315</v>
+        <v>0.7592127886031079</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5522902800409355</v>
+        <v>1.044803008313664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.423637442718302</v>
+        <v>1.111570668137119</v>
       </c>
       <c r="C17">
-        <v>0.8145869464527777</v>
+        <v>0.2863811488266208</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5276872169092215</v>
+        <v>0.6463942744263349</v>
       </c>
       <c r="F17">
-        <v>1.414031292424752</v>
+        <v>1.751623701304496</v>
       </c>
       <c r="G17">
-        <v>0.1524638460333634</v>
+        <v>0.1972412039981961</v>
       </c>
       <c r="H17">
-        <v>0.1273252621738976</v>
+        <v>0.373522159115474</v>
       </c>
       <c r="I17">
-        <v>0.04698779898234129</v>
+        <v>0.2482979610005094</v>
       </c>
       <c r="J17">
-        <v>0.02451019714215263</v>
+        <v>0.02444744428646572</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.627321396866506</v>
+        <v>0.7386910077345732</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.541838533270294</v>
+        <v>1.049574762500811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.341277538096278</v>
+        <v>1.0848872191429</v>
       </c>
       <c r="C18">
-        <v>0.7963091375430906</v>
+        <v>0.2803944572364401</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5176362243382471</v>
+        <v>0.644769032912123</v>
       </c>
       <c r="F18">
-        <v>1.387712430763671</v>
+        <v>1.748939062670345</v>
       </c>
       <c r="G18">
-        <v>0.1496547516591917</v>
+        <v>0.1975827569953026</v>
       </c>
       <c r="H18">
-        <v>0.1275104400371774</v>
+        <v>0.3745656727807543</v>
       </c>
       <c r="I18">
-        <v>0.04883725056400312</v>
+        <v>0.2498285737321595</v>
       </c>
       <c r="J18">
-        <v>0.02426421796258538</v>
+        <v>0.02438596371611723</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.586982043427611</v>
+        <v>0.7268932209526753</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5361863704032714</v>
+        <v>1.052428989078592</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.313400460468813</v>
+        <v>1.075847913744269</v>
       </c>
       <c r="C19">
-        <v>0.7901224650189249</v>
+        <v>0.278366328811785</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.514248062365418</v>
+        <v>0.6442238086993086</v>
       </c>
       <c r="F19">
-        <v>1.378862377075038</v>
+        <v>1.748049767009533</v>
       </c>
       <c r="G19">
-        <v>0.1487218127066257</v>
+        <v>0.1977031169964576</v>
       </c>
       <c r="H19">
-        <v>0.1275835805285368</v>
+        <v>0.3749232606864226</v>
       </c>
       <c r="I19">
-        <v>0.04947692386665548</v>
+        <v>0.2503513980993928</v>
       </c>
       <c r="J19">
-        <v>0.02418138784732093</v>
+        <v>0.02436531028212485</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.57333619413339</v>
+        <v>0.7228997106452226</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5343329031854296</v>
+        <v>1.053414188321796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.43888467597327</v>
+        <v>1.116506905983897</v>
       </c>
       <c r="C20">
-        <v>0.8179706921052059</v>
+        <v>0.2874886073704488</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.529554624158088</v>
+        <v>0.6466974709274567</v>
       </c>
       <c r="F20">
-        <v>1.418931718923176</v>
+        <v>1.75212991651361</v>
       </c>
       <c r="G20">
-        <v>0.1529924917811485</v>
+        <v>0.1971802324417382</v>
       </c>
       <c r="H20">
-        <v>0.1272960003263748</v>
+        <v>0.3733310579079685</v>
       </c>
       <c r="I20">
-        <v>0.04665197736453663</v>
+        <v>0.2480168582624094</v>
       </c>
       <c r="J20">
-        <v>0.0245559400214681</v>
+        <v>0.02445890022088903</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.634793322756252</v>
+        <v>0.7408749913286385</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5429135906434084</v>
+        <v>1.049055448213281</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.861210828078129</v>
+        <v>1.25277681037943</v>
       </c>
       <c r="C21">
-        <v>0.9116931362569005</v>
+        <v>0.3180570891959462</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5820844887458989</v>
+        <v>0.6553601761160905</v>
       </c>
       <c r="F21">
-        <v>1.558050160954707</v>
+        <v>1.767208947603422</v>
       </c>
       <c r="G21">
-        <v>0.168675862288481</v>
+        <v>0.1957527689709053</v>
       </c>
       <c r="H21">
-        <v>0.1270872877971101</v>
+        <v>0.3682789634530295</v>
       </c>
       <c r="I21">
-        <v>0.0381397224779052</v>
+        <v>0.2404929073739286</v>
       </c>
       <c r="J21">
-        <v>0.02584716247924845</v>
+        <v>0.02478462712702267</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.842231057163261</v>
+        <v>0.8013371587965423</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5761496512594135</v>
+        <v>1.035722374853165</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.137907833581266</v>
+        <v>1.341574721066991</v>
       </c>
       <c r="C22">
-        <v>0.9730941579961723</v>
+        <v>0.3379725629026211</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6173151072500929</v>
+        <v>0.6612836625660847</v>
       </c>
       <c r="F22">
-        <v>1.652618764931702</v>
+        <v>1.778086987525427</v>
       </c>
       <c r="G22">
-        <v>0.1800067064299</v>
+        <v>0.1950668228093804</v>
       </c>
       <c r="H22">
-        <v>0.1275536045331123</v>
+        <v>0.3651992029685758</v>
       </c>
       <c r="I22">
-        <v>0.03335694260543676</v>
+        <v>0.2358148669995064</v>
       </c>
       <c r="J22">
-        <v>0.02671693160480615</v>
+        <v>0.02500585565464419</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.978623216552123</v>
+        <v>0.8408994921579733</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6014180919688101</v>
+        <v>1.02799002889148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.990157047656851</v>
+        <v>1.294206241795621</v>
       </c>
       <c r="C23">
-        <v>0.940307619993348</v>
+        <v>0.3273491948039862</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5984243542569914</v>
+        <v>0.6580982280353709</v>
       </c>
       <c r="F23">
-        <v>1.601792060574297</v>
+        <v>1.772187455697917</v>
       </c>
       <c r="G23">
-        <v>0.1738545847199688</v>
+        <v>0.1954102295218618</v>
       </c>
       <c r="H23">
-        <v>0.1272470358815738</v>
+        <v>0.3668225865890804</v>
       </c>
       <c r="I23">
-        <v>0.03583482225675194</v>
+        <v>0.2382896681162698</v>
       </c>
       <c r="J23">
-        <v>0.02625025483429511</v>
+        <v>0.02488702177371138</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.905745704777956</v>
+        <v>0.819780279826233</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5875898354982922</v>
+        <v>1.03202685831657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.431991349726729</v>
+        <v>1.114275357453494</v>
       </c>
       <c r="C24">
-        <v>0.8164408896749649</v>
+        <v>0.2869879546394429</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5287101061046044</v>
+        <v>0.6465603064573671</v>
       </c>
       <c r="F24">
-        <v>1.41671514037742</v>
+        <v>1.751900703534574</v>
       </c>
       <c r="G24">
-        <v>0.1527531580692525</v>
+        <v>0.1972077115680477</v>
       </c>
       <c r="H24">
-        <v>0.1273090367311127</v>
+        <v>0.3734173758145545</v>
       </c>
       <c r="I24">
-        <v>0.04680355091504129</v>
+        <v>0.248143859443128</v>
       </c>
       <c r="J24">
-        <v>0.02453525165261539</v>
+        <v>0.02445371813337616</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.631415088201507</v>
+        <v>0.7398876108652104</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5424264499554425</v>
+        <v>1.049289884871712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.831913394410321</v>
+        <v>0.9191279696522088</v>
       </c>
       <c r="C25">
-        <v>0.6832673339401651</v>
+        <v>0.2431972319100169</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4568816127926709</v>
+        <v>0.6352398415319058</v>
       </c>
       <c r="F25">
-        <v>1.230847190450206</v>
+        <v>1.734398994954972</v>
       </c>
       <c r="G25">
-        <v>0.134087205180748</v>
+        <v>0.2001971606101662</v>
       </c>
       <c r="H25">
-        <v>0.1297226506971967</v>
+        <v>0.3814820952921991</v>
       </c>
       <c r="I25">
-        <v>0.06166542232744554</v>
+        <v>0.2597943977800323</v>
       </c>
       <c r="J25">
-        <v>0.02278729211387187</v>
+        <v>0.0240225435628183</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.338322011006881</v>
+        <v>0.6539347100939779</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5072769970637978</v>
+        <v>1.072099427495203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7745651815740189</v>
+        <v>2.390758244864287</v>
       </c>
       <c r="C2">
-        <v>0.2107446106586224</v>
+        <v>0.5853681147114855</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6278702139078263</v>
+        <v>0.4063870673079251</v>
       </c>
       <c r="F2">
-        <v>1.725261838504053</v>
+        <v>1.103894941761737</v>
       </c>
       <c r="G2">
-        <v>0.2032907514144355</v>
+        <v>0.1233076666924475</v>
       </c>
       <c r="H2">
-        <v>0.3882364568154699</v>
+        <v>0.133273016991339</v>
       </c>
       <c r="I2">
-        <v>0.2692454659551169</v>
+        <v>0.07488929075516371</v>
       </c>
       <c r="J2">
-        <v>0.02373654028034622</v>
+        <v>0.02157833912766449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5908515562150285</v>
+        <v>1.124188919926382</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.092469087424192</v>
+        <v>0.4913674723164974</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6760686717638578</v>
+        <v>2.091748282820106</v>
       </c>
       <c r="C3">
-        <v>0.1886257031920877</v>
+        <v>0.5190213292200383</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6234773292514859</v>
+        <v>0.3734312985551256</v>
       </c>
       <c r="F3">
-        <v>1.721399550507343</v>
+        <v>1.023155311562704</v>
       </c>
       <c r="G3">
-        <v>0.2059384260378536</v>
+        <v>0.1175955765109293</v>
       </c>
       <c r="H3">
-        <v>0.3933223059687663</v>
+        <v>0.1366730135754111</v>
       </c>
       <c r="I3">
-        <v>0.2761921925181809</v>
+        <v>0.08512459551963669</v>
       </c>
       <c r="J3">
-        <v>0.02356252043098728</v>
+        <v>0.02080335220180807</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5482331789457078</v>
+        <v>0.979774112813935</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.108490097799546</v>
+        <v>0.4860277314492549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6153414176308161</v>
+        <v>1.908003759091741</v>
       </c>
       <c r="C4">
-        <v>0.1749848748368379</v>
+        <v>0.478256293115578</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6210767214966921</v>
+        <v>0.3537514628627321</v>
       </c>
       <c r="F4">
-        <v>1.720174844028577</v>
+        <v>0.9759257567940978</v>
       </c>
       <c r="G4">
-        <v>0.207834093455908</v>
+        <v>0.114795485679231</v>
       </c>
       <c r="H4">
-        <v>0.3966954844843116</v>
+        <v>0.1392162665488712</v>
       </c>
       <c r="I4">
-        <v>0.2807237040861592</v>
+        <v>0.09199087565839914</v>
       </c>
       <c r="J4">
-        <v>0.02346550770905509</v>
+        <v>0.02034805473771684</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5221342041039918</v>
+        <v>0.8913506050959299</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.119415655406613</v>
+        <v>0.4851940523382581</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5905335357662693</v>
+        <v>1.833071239400653</v>
       </c>
       <c r="C5">
-        <v>0.169411540465461</v>
+        <v>0.4616336594964991</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.620173081797077</v>
+        <v>0.3458618969859941</v>
       </c>
       <c r="F5">
-        <v>1.719963860827221</v>
+        <v>0.957231702685192</v>
       </c>
       <c r="G5">
-        <v>0.2086742126080097</v>
+        <v>0.1138211416064152</v>
       </c>
       <c r="H5">
-        <v>0.3981330096883653</v>
+        <v>0.1403623442986728</v>
       </c>
       <c r="I5">
-        <v>0.2826371095690945</v>
+        <v>0.09492863212686853</v>
       </c>
       <c r="J5">
-        <v>0.02342845941618421</v>
+        <v>0.02016750400839129</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5115166473494668</v>
+        <v>0.8553663333762671</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.124140962398982</v>
+        <v>0.4854353206787465</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5864105738365311</v>
+        <v>1.820624946254867</v>
       </c>
       <c r="C6">
-        <v>0.1684852244008823</v>
+        <v>0.4588727483751143</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6200275414740233</v>
+        <v>0.3445594331085218</v>
       </c>
       <c r="F6">
-        <v>1.719946219670817</v>
+        <v>0.9541598776628888</v>
       </c>
       <c r="G6">
-        <v>0.2088177898403245</v>
+        <v>0.1136691067084854</v>
       </c>
       <c r="H6">
-        <v>0.3983755088775638</v>
+        <v>0.1405591353232438</v>
       </c>
       <c r="I6">
-        <v>0.282958857642539</v>
+        <v>0.09542469398878328</v>
       </c>
       <c r="J6">
-        <v>0.02342245802286236</v>
+        <v>0.02013781980831908</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5097547162389802</v>
+        <v>0.8493937613705924</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.124942067748478</v>
+        <v>0.4855095151259547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.615007094540772</v>
+        <v>1.906993437851582</v>
       </c>
       <c r="C7">
-        <v>0.1749097693794965</v>
+        <v>0.4780321616691197</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6210642324863827</v>
+        <v>0.3536445466688889</v>
       </c>
       <c r="F7">
-        <v>1.720170832506099</v>
+        <v>0.9756714535732982</v>
       </c>
       <c r="G7">
-        <v>0.2078451501679552</v>
+        <v>0.1147816846123462</v>
       </c>
       <c r="H7">
-        <v>0.3967146167266051</v>
+        <v>0.139231285158985</v>
       </c>
       <c r="I7">
-        <v>0.2807492387719561</v>
+        <v>0.09202993816819394</v>
       </c>
       <c r="J7">
-        <v>0.02346499798468038</v>
+        <v>0.02034559980717532</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5219909383036878</v>
+        <v>0.8908651270640675</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.119478277873</v>
+        <v>0.4851949972588585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7406565370809517</v>
+        <v>2.287680201039677</v>
       </c>
       <c r="C8">
-        <v>0.2031306606435805</v>
+        <v>0.5624952769694858</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6262939970799906</v>
+        <v>0.3949028254409512</v>
       </c>
       <c r="F8">
-        <v>1.7236919463856</v>
+        <v>1.075546174077274</v>
       </c>
       <c r="G8">
-        <v>0.204147471910062</v>
+        <v>0.1211845229415971</v>
       </c>
       <c r="H8">
-        <v>0.3899380481547396</v>
+        <v>0.1343477519771952</v>
       </c>
       <c r="I8">
-        <v>0.2715853543800755</v>
+        <v>0.07829361970757098</v>
       </c>
       <c r="J8">
-        <v>0.02367450367178492</v>
+        <v>0.02130674704181246</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5761428287554367</v>
+        <v>1.07433497498392</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.097766785633951</v>
+        <v>0.4889980474498543</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9850026100980358</v>
+        <v>3.033879923219558</v>
       </c>
       <c r="C9">
-        <v>0.2579814587155624</v>
+        <v>0.7280890641986844</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6389030524691393</v>
+        <v>0.4806734735894764</v>
       </c>
       <c r="F9">
-        <v>1.73971087403649</v>
+        <v>1.291795653181183</v>
       </c>
       <c r="G9">
-        <v>0.1990507812731295</v>
+        <v>0.1398787289244083</v>
       </c>
       <c r="H9">
-        <v>0.3786385543754278</v>
+        <v>0.1286184962267498</v>
       </c>
       <c r="I9">
-        <v>0.2557339387256397</v>
+        <v>0.05628398702526294</v>
       </c>
       <c r="J9">
-        <v>0.0241629198062796</v>
+        <v>0.02336335671291678</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6828572811470508</v>
+        <v>1.436743927485423</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.063858809494349</v>
+        <v>0.5174597572625999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.163198263354502</v>
+        <v>3.583281952123002</v>
       </c>
       <c r="C10">
-        <v>0.2979634218427805</v>
+        <v>0.8500158435221579</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6496033412404714</v>
+        <v>0.5473416475680821</v>
       </c>
       <c r="F10">
-        <v>1.7570613962274</v>
+        <v>1.465768949699708</v>
       </c>
       <c r="G10">
-        <v>0.1966366412213958</v>
+        <v>0.1581305187032171</v>
       </c>
       <c r="H10">
-        <v>0.3715524586115038</v>
+        <v>0.1270953207643757</v>
       </c>
       <c r="I10">
-        <v>0.2453885771586828</v>
+        <v>0.04357174441025258</v>
       </c>
       <c r="J10">
-        <v>0.02456849209879053</v>
+        <v>0.02499224193701721</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.761555235849869</v>
+        <v>1.705615533473491</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.04427339248322</v>
+        <v>0.5535327365351748</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.243961797043823</v>
+        <v>3.83380808981309</v>
       </c>
       <c r="C11">
-        <v>0.3160799059828889</v>
+        <v>0.905612104673736</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.654783577684384</v>
+        <v>0.5786298827093361</v>
       </c>
       <c r="F11">
-        <v>1.766172256843021</v>
+        <v>1.548829341341303</v>
       </c>
       <c r="G11">
-        <v>0.1958309025314051</v>
+        <v>0.1675984447045948</v>
       </c>
       <c r="H11">
-        <v>0.3685933958786407</v>
+        <v>0.1270664962916115</v>
       </c>
       <c r="I11">
-        <v>0.2409665214714698</v>
+        <v>0.03864689526441811</v>
       </c>
       <c r="J11">
-        <v>0.02476303276501568</v>
+        <v>0.02576201557930702</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.797416490934495</v>
+        <v>1.828743998178638</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.036529210048144</v>
+        <v>0.5737948867270859</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.274500336328515</v>
+        <v>3.928791443383204</v>
       </c>
       <c r="C12">
-        <v>0.3229294875474693</v>
+        <v>0.9266900489384398</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6567901559399161</v>
+        <v>0.5906310137652042</v>
       </c>
       <c r="F12">
-        <v>1.769797827979815</v>
+        <v>1.580903050523844</v>
       </c>
       <c r="G12">
-        <v>0.1955681368462692</v>
+        <v>0.171367722718955</v>
       </c>
       <c r="H12">
-        <v>0.3675109574959663</v>
+        <v>0.1271583425634688</v>
       </c>
       <c r="I12">
-        <v>0.2393330245773306</v>
+        <v>0.03691500980559326</v>
       </c>
       <c r="J12">
-        <v>0.0248381340449555</v>
+        <v>0.02605792781777438</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8110044569626069</v>
+        <v>1.875508785314651</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.033764999486849</v>
+        <v>0.5820717819292724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.267925341044645</v>
+        <v>3.908329509996577</v>
       </c>
       <c r="C13">
-        <v>0.3214547923653583</v>
+        <v>0.9221493305005879</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6563560052101778</v>
+        <v>0.5880393036019385</v>
       </c>
       <c r="F13">
-        <v>1.769009186244489</v>
+        <v>1.573966850260547</v>
       </c>
       <c r="G13">
-        <v>0.1956228399470916</v>
+        <v>0.1705474845188348</v>
       </c>
       <c r="H13">
-        <v>0.3677423846181043</v>
+        <v>0.1271338702494162</v>
       </c>
       <c r="I13">
-        <v>0.2396829991511336</v>
+        <v>0.0372819240619604</v>
       </c>
       <c r="J13">
-        <v>0.02482189608868879</v>
+        <v>0.02599399682213033</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8080776969133154</v>
+        <v>1.865430626795145</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.034352822341006</v>
+        <v>0.5802615033478702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.246475131043269</v>
+        <v>3.841619961905963</v>
       </c>
       <c r="C14">
-        <v>0.3166436429728492</v>
+        <v>0.907345665710011</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6549477596270421</v>
+        <v>0.5796140682697697</v>
       </c>
       <c r="F14">
-        <v>1.766467015842849</v>
+        <v>1.551455286106489</v>
       </c>
       <c r="G14">
-        <v>0.1958084342052118</v>
+        <v>0.1679047599538848</v>
       </c>
       <c r="H14">
-        <v>0.3685035791598423</v>
+        <v>0.1270719495872896</v>
       </c>
       <c r="I14">
-        <v>0.2408313091383985</v>
+        <v>0.03850168782996022</v>
       </c>
       <c r="J14">
-        <v>0.02476918273835693</v>
+        <v>0.02578627030716873</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7985342230416421</v>
+        <v>1.832588457961691</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.036298418529114</v>
+        <v>0.5744634261518087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233330359346553</v>
+        <v>3.800774231594971</v>
       </c>
       <c r="C15">
-        <v>0.3136952632483485</v>
+        <v>0.8982814159524537</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6540910198609424</v>
+        <v>0.574473748395576</v>
       </c>
       <c r="F15">
-        <v>1.764932726468132</v>
+        <v>1.537748881641122</v>
       </c>
       <c r="G15">
-        <v>0.1959276399671666</v>
+        <v>0.1663104820733423</v>
       </c>
       <c r="H15">
-        <v>0.3689747958504626</v>
+        <v>0.1270476284117876</v>
       </c>
       <c r="I15">
-        <v>0.2415400322529511</v>
+        <v>0.03926645313767363</v>
       </c>
       <c r="J15">
-        <v>0.02473708056728796</v>
+        <v>0.02565961540812012</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7926896019634171</v>
+        <v>1.812490403194516</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.037512098453064</v>
+        <v>0.5709921493999133</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.157914003698693</v>
+        <v>3.566923919413057</v>
       </c>
       <c r="C16">
-        <v>0.2967779890596205</v>
+        <v>0.8463856362865272</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6492710896714868</v>
+        <v>0.5453174571162123</v>
       </c>
       <c r="F16">
-        <v>1.756490518511328</v>
+        <v>1.460424392585679</v>
       </c>
       <c r="G16">
-        <v>0.1966952084579674</v>
+        <v>0.1575365916843126</v>
       </c>
       <c r="H16">
-        <v>0.3717511673558036</v>
+        <v>0.1271111772382127</v>
       </c>
       <c r="I16">
-        <v>0.2456833016669968</v>
+        <v>0.04391167204247548</v>
       </c>
       <c r="J16">
-        <v>0.02455597954385524</v>
+        <v>0.02494253783502032</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7592127886031079</v>
+        <v>1.697587017548315</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.044803008313664</v>
+        <v>0.5522902800409355</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.111570668137119</v>
+        <v>3.423637442718132</v>
       </c>
       <c r="C17">
-        <v>0.2863811488266208</v>
+        <v>0.8145869464528062</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6463942744263349</v>
+        <v>0.5276872169092357</v>
       </c>
       <c r="F17">
-        <v>1.751623701304496</v>
+        <v>1.414031292424752</v>
       </c>
       <c r="G17">
-        <v>0.1972412039981961</v>
+        <v>0.1524638460334131</v>
       </c>
       <c r="H17">
-        <v>0.373522159115474</v>
+        <v>0.1273252621737839</v>
       </c>
       <c r="I17">
-        <v>0.2482979610005094</v>
+        <v>0.04698779898235284</v>
       </c>
       <c r="J17">
-        <v>0.02444744428646572</v>
+        <v>0.02451019714198566</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7386910077345732</v>
+        <v>1.627321396866506</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.049574762500811</v>
+        <v>0.541838533270294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.0848872191429</v>
+        <v>3.341277538096506</v>
       </c>
       <c r="C18">
-        <v>0.2803944572364401</v>
+        <v>0.7963091375430338</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.644769032912123</v>
+        <v>0.5176362243382329</v>
       </c>
       <c r="F18">
-        <v>1.748939062670345</v>
+        <v>1.387712430763671</v>
       </c>
       <c r="G18">
-        <v>0.1975827569953026</v>
+        <v>0.1496547516592628</v>
       </c>
       <c r="H18">
-        <v>0.3745656727807543</v>
+        <v>0.1275104400371703</v>
       </c>
       <c r="I18">
-        <v>0.2498285737321595</v>
+        <v>0.04883725056400312</v>
       </c>
       <c r="J18">
-        <v>0.02438596371611723</v>
+        <v>0.02426421796262446</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7268932209526753</v>
+        <v>1.586982043427625</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.052428989078592</v>
+        <v>0.5361863704033283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.075847913744269</v>
+        <v>3.313400460468699</v>
       </c>
       <c r="C19">
-        <v>0.278366328811785</v>
+        <v>0.7901224650188681</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6442238086993086</v>
+        <v>0.5142480623654038</v>
       </c>
       <c r="F19">
-        <v>1.748049767009533</v>
+        <v>1.378862377075038</v>
       </c>
       <c r="G19">
-        <v>0.1977031169964576</v>
+        <v>0.1487218127066257</v>
       </c>
       <c r="H19">
-        <v>0.3749232606864226</v>
+        <v>0.1275835805286505</v>
       </c>
       <c r="I19">
-        <v>0.2503513980993928</v>
+        <v>0.04947692386665548</v>
       </c>
       <c r="J19">
-        <v>0.02436531028212485</v>
+        <v>0.02418138784717172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7228997106452226</v>
+        <v>1.573336194133404</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.053414188321796</v>
+        <v>0.5343329031854864</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.116506905983897</v>
+        <v>3.43888467597327</v>
       </c>
       <c r="C20">
-        <v>0.2874886073704488</v>
+        <v>0.8179706921049785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6466974709274567</v>
+        <v>0.5295546241580809</v>
       </c>
       <c r="F20">
-        <v>1.75212991651361</v>
+        <v>1.41893171892319</v>
       </c>
       <c r="G20">
-        <v>0.1971802324417382</v>
+        <v>0.1529924917812053</v>
       </c>
       <c r="H20">
-        <v>0.3733310579079685</v>
+        <v>0.1272960003263677</v>
       </c>
       <c r="I20">
-        <v>0.2480168582624094</v>
+        <v>0.04665197736454818</v>
       </c>
       <c r="J20">
-        <v>0.02445890022088903</v>
+        <v>0.02455594002141481</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7408749913286385</v>
+        <v>1.634793322756266</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.049055448213281</v>
+        <v>0.5429135906433231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.25277681037943</v>
+        <v>3.861210828077901</v>
       </c>
       <c r="C21">
-        <v>0.3180570891959462</v>
+        <v>0.9116931362571563</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6553601761160905</v>
+        <v>0.5820844887458989</v>
       </c>
       <c r="F21">
-        <v>1.767208947603422</v>
+        <v>1.558050160954707</v>
       </c>
       <c r="G21">
-        <v>0.1957527689709053</v>
+        <v>0.1686758622884881</v>
       </c>
       <c r="H21">
-        <v>0.3682789634530295</v>
+        <v>0.1270872877971101</v>
       </c>
       <c r="I21">
-        <v>0.2404929073739286</v>
+        <v>0.03813972247790431</v>
       </c>
       <c r="J21">
-        <v>0.02478462712702267</v>
+        <v>0.0258471624792449</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8013371587965423</v>
+        <v>1.842231057163261</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.035722374853165</v>
+        <v>0.5761496512594135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.341574721066991</v>
+        <v>4.137907833581323</v>
       </c>
       <c r="C22">
-        <v>0.3379725629026211</v>
+        <v>0.9730941579961723</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6612836625660847</v>
+        <v>0.6173151072501142</v>
       </c>
       <c r="F22">
-        <v>1.778086987525427</v>
+        <v>1.652618764931702</v>
       </c>
       <c r="G22">
-        <v>0.1950668228093804</v>
+        <v>0.180006706429964</v>
       </c>
       <c r="H22">
-        <v>0.3651992029685758</v>
+        <v>0.1275536045331123</v>
       </c>
       <c r="I22">
-        <v>0.2358148669995064</v>
+        <v>0.03335694260543764</v>
       </c>
       <c r="J22">
-        <v>0.02500585565464419</v>
+        <v>0.02671693160479549</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8408994921579733</v>
+        <v>1.978623216552123</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.02799002889148</v>
+        <v>0.6014180919688243</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.294206241795621</v>
+        <v>3.990157047656908</v>
       </c>
       <c r="C23">
-        <v>0.3273491948039862</v>
+        <v>0.9403076199930922</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6580982280353709</v>
+        <v>0.5984243542569985</v>
       </c>
       <c r="F23">
-        <v>1.772187455697917</v>
+        <v>1.601792060574297</v>
       </c>
       <c r="G23">
-        <v>0.1954102295218618</v>
+        <v>0.1738545847199831</v>
       </c>
       <c r="H23">
-        <v>0.3668225865890804</v>
+        <v>0.1272470358815809</v>
       </c>
       <c r="I23">
-        <v>0.2382896681162698</v>
+        <v>0.03583482225675283</v>
       </c>
       <c r="J23">
-        <v>0.02488702177371138</v>
+        <v>0.02625025483423826</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.819780279826233</v>
+        <v>1.905745704777956</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.03202685831657</v>
+        <v>0.5875898354982496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.114275357453494</v>
+        <v>3.431991349726616</v>
       </c>
       <c r="C24">
-        <v>0.2869879546394429</v>
+        <v>0.8164408896750217</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6465603064573671</v>
+        <v>0.5287101061046044</v>
       </c>
       <c r="F24">
-        <v>1.751900703534574</v>
+        <v>1.41671514037742</v>
       </c>
       <c r="G24">
-        <v>0.1972077115680477</v>
+        <v>0.1527531580692028</v>
       </c>
       <c r="H24">
-        <v>0.3734173758145545</v>
+        <v>0.1273090367311127</v>
       </c>
       <c r="I24">
-        <v>0.248143859443128</v>
+        <v>0.04680355091505639</v>
       </c>
       <c r="J24">
-        <v>0.02445371813337616</v>
+        <v>0.02453525165253012</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7398876108652104</v>
+        <v>1.631415088201479</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.049289884871712</v>
+        <v>0.5424264499554567</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9191279696522088</v>
+        <v>2.831913394410435</v>
       </c>
       <c r="C25">
-        <v>0.2431972319100169</v>
+        <v>0.6832673339401651</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6352398415319058</v>
+        <v>0.4568816127926425</v>
       </c>
       <c r="F25">
-        <v>1.734398994954972</v>
+        <v>1.230847190450234</v>
       </c>
       <c r="G25">
-        <v>0.2001971606101662</v>
+        <v>0.1340872051806983</v>
       </c>
       <c r="H25">
-        <v>0.3814820952921991</v>
+        <v>0.1297226506973104</v>
       </c>
       <c r="I25">
-        <v>0.2597943977800323</v>
+        <v>0.06166542232744465</v>
       </c>
       <c r="J25">
-        <v>0.0240225435628183</v>
+        <v>0.02278729211392516</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6539347100939779</v>
+        <v>1.338322011006866</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.072099427495203</v>
+        <v>0.5072769970637978</v>
       </c>
     </row>
   </sheetData>
